--- a/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_minNPV_train.xlsx
+++ b/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_minNPV_train.xlsx
@@ -584,46 +584,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6742420848879493</v>
+        <v>0.6742422508261285</v>
       </c>
       <c r="C4">
-        <v>0.003418839028336396</v>
+        <v>0.003158561958540806</v>
       </c>
       <c r="D4">
-        <v>0.3970202075353476</v>
+        <v>0.4144201142960699</v>
       </c>
       <c r="E4">
-        <v>0.005435085013994367</v>
+        <v>0.005253721403465861</v>
       </c>
       <c r="F4">
-        <v>0.995169082125604</v>
+        <v>0.9916183902378898</v>
       </c>
       <c r="G4">
-        <v>0.001997010652656117</v>
+        <v>0.002112327318952278</v>
       </c>
       <c r="H4">
-        <v>0.2482743072155887</v>
+        <v>0.2622328162744841</v>
       </c>
       <c r="I4">
-        <v>0.004442900022356672</v>
+        <v>0.004360023814946046</v>
       </c>
       <c r="J4">
-        <v>0.9928269771234923</v>
+        <v>0.9851507347952289</v>
       </c>
       <c r="K4">
-        <v>0.002744152681646739</v>
+        <v>0.003337433864963435</v>
       </c>
       <c r="L4">
-        <v>0.07944884198182352</v>
+        <v>0.1110460577673693</v>
       </c>
       <c r="M4">
-        <v>0.02200095090848948</v>
+        <v>0.02150178096121359</v>
       </c>
       <c r="N4">
-        <v>0.2926225820962663</v>
+        <v>0.32282927696914</v>
       </c>
       <c r="O4">
-        <v>0.01643627066127024</v>
+        <v>0.0158461947691359</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -819,46 +819,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7039182122496014</v>
+        <v>0.6820315234313713</v>
       </c>
       <c r="C9">
-        <v>0.003275342783108148</v>
+        <v>0.003246208755838031</v>
       </c>
       <c r="D9">
-        <v>0.3849625912090612</v>
+        <v>0.3938182010579055</v>
       </c>
       <c r="E9">
-        <v>0.002578466117364397</v>
+        <v>0.001620606201806818</v>
       </c>
       <c r="F9">
-        <v>0.9978505129457744</v>
+        <v>0.9982259018332347</v>
       </c>
       <c r="G9">
-        <v>0.001043565727425144</v>
+        <v>0.0006763045942158596</v>
       </c>
       <c r="H9">
-        <v>0.2385803078866154</v>
+        <v>0.2453343368554229</v>
       </c>
       <c r="I9">
-        <v>0.002080906796234544</v>
+        <v>0.001306168861560958</v>
       </c>
       <c r="J9">
-        <v>0.9952363125876407</v>
+        <v>0.9936267783551849</v>
       </c>
       <c r="K9">
-        <v>0.002178386331622595</v>
+        <v>0.002437727727376826</v>
       </c>
       <c r="L9">
-        <v>0.03148439121283093</v>
+        <v>0.02675227394328518</v>
       </c>
       <c r="M9">
-        <v>0.01108421068034727</v>
+        <v>0.007274493929805136</v>
       </c>
       <c r="N9">
-        <v>0.2564481644907428</v>
+        <v>0.2603978300180833</v>
       </c>
       <c r="O9">
-        <v>0.00826777211719415</v>
+        <v>0.005368409230468052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -866,46 +866,46 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6931378589020745</v>
+        <v>0.6823727846401718</v>
       </c>
       <c r="C10">
-        <v>0.003542403341321054</v>
+        <v>0.003166252539232084</v>
       </c>
       <c r="D10">
-        <v>0.3921062547447569</v>
+        <v>0.3959395975073275</v>
       </c>
       <c r="E10">
-        <v>0.004043704863492648</v>
+        <v>0.0024934296180536</v>
       </c>
       <c r="F10">
-        <v>0.9949543746645195</v>
+        <v>0.9980263157894737</v>
       </c>
       <c r="G10">
-        <v>0.001633338938206497</v>
+        <v>0.0009869809254257067</v>
       </c>
       <c r="H10">
-        <v>0.2443840023773539</v>
+        <v>0.2470376197361366</v>
       </c>
       <c r="I10">
-        <v>0.003284932619662506</v>
+        <v>0.002028062242190126</v>
       </c>
       <c r="J10">
-        <v>0.9903793656898403</v>
+        <v>0.9952064956162034</v>
       </c>
       <c r="K10">
-        <v>0.002892827755100691</v>
+        <v>0.00226109322547341</v>
       </c>
       <c r="L10">
-        <v>0.06179354376364052</v>
+        <v>0.03491071428571428</v>
       </c>
       <c r="M10">
-        <v>0.01706627572500305</v>
+        <v>0.01073634309663223</v>
       </c>
       <c r="N10">
-        <v>0.2790273404308492</v>
+        <v>0.2665461121157324</v>
       </c>
       <c r="O10">
-        <v>0.01272191392624988</v>
+        <v>0.007930817814112534</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1101,46 +1101,34 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.5736479595203219</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00419965286954338</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.4042758130949657</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>0.001036504681596717</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2533582434087644</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>0.0008195252713930068</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.01484619343600301</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004135253793377093</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2616242841458711</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.003099385049906866</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1148,46 +1136,46 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6040570814792083</v>
+        <v>0.6019752360630275</v>
       </c>
       <c r="C16">
-        <v>0.003124097153838545</v>
+        <v>0.003783342052154359</v>
       </c>
       <c r="D16">
-        <v>0.4003204006096965</v>
+        <v>0.4054947392939042</v>
       </c>
       <c r="E16">
-        <v>0.001705816870643695</v>
+        <v>0.001622483610753012</v>
       </c>
       <c r="F16">
-        <v>0.9986602870813397</v>
+        <v>0.9994121105232218</v>
       </c>
       <c r="G16">
-        <v>0.0006599352535849867</v>
+        <v>0.0004624583405817839</v>
       </c>
       <c r="H16">
-        <v>0.2503783696563134</v>
+        <v>0.2543776572485155</v>
       </c>
       <c r="I16">
-        <v>0.001380600429399984</v>
+        <v>0.001317893790898195</v>
       </c>
       <c r="J16">
-        <v>0.9962592648880418</v>
+        <v>0.9982721439380082</v>
       </c>
       <c r="K16">
-        <v>0.001853273312889647</v>
+        <v>0.001370042833385487</v>
       </c>
       <c r="L16">
-        <v>0.04014116924965474</v>
+        <v>0.02279704748840551</v>
       </c>
       <c r="M16">
-        <v>0.007319857482909531</v>
+        <v>0.006787002999408626</v>
       </c>
       <c r="N16">
-        <v>0.2728941559196003</v>
+        <v>0.2669508132471096</v>
       </c>
       <c r="O16">
-        <v>0.005407126553069297</v>
+        <v>0.004994573867235452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1195,34 +1183,34 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6753823263392641</v>
+        <v>0.6657298640057261</v>
       </c>
       <c r="C17">
-        <v>0.003170372315025594</v>
+        <v>0.003240061509564685</v>
       </c>
       <c r="D17">
-        <v>0.3950663210387492</v>
+        <v>0.4054674617411896</v>
       </c>
       <c r="E17">
-        <v>0.0006393567974130598</v>
+        <v>0.0007024370972326111</v>
       </c>
       <c r="H17">
-        <v>0.2461612137246013</v>
+        <v>0.2542914779889919</v>
       </c>
       <c r="I17">
-        <v>0.0004980863895616139</v>
+        <v>0.0005542754922496229</v>
       </c>
       <c r="L17">
-        <v>0.01492367281840966</v>
+        <v>0.0197733301181577</v>
       </c>
       <c r="M17">
-        <v>0.002600797425785304</v>
+        <v>0.002822206584193545</v>
       </c>
       <c r="N17">
-        <v>0.2546546373980002</v>
+        <v>0.2653171877823965</v>
       </c>
       <c r="O17">
-        <v>0.001967859999156163</v>
+        <v>0.002115252250976085</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1277,34 +1265,46 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6901864368935979</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.003486323733745911</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.379125273720566</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0001738876733157757</v>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2339018897350354</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0001326070483793074</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.003540305010893246</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0007306143579067182</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2359801932943563</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0005601870736079984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1312,46 +1312,46 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.705725872392539</v>
+        <v>0.6858736683477067</v>
       </c>
       <c r="C20">
-        <v>0.003065406726359132</v>
+        <v>0.002901434807445313</v>
       </c>
       <c r="D20">
-        <v>0.408476924493834</v>
+        <v>0.4100688693122334</v>
       </c>
       <c r="E20">
-        <v>0.002734977219023382</v>
+        <v>0.001483985515771669</v>
       </c>
       <c r="F20">
-        <v>0.996845746845747</v>
+        <v>0.9993136582017845</v>
       </c>
       <c r="G20">
-        <v>0.0009189603974082416</v>
+        <v>0.0005762563234424922</v>
       </c>
       <c r="H20">
-        <v>0.2569751385746809</v>
+        <v>0.257996747472323</v>
       </c>
       <c r="I20">
-        <v>0.002237763909469059</v>
+        <v>0.001233041956242853</v>
       </c>
       <c r="J20">
-        <v>0.99203847107583</v>
+        <v>0.9983303169930637</v>
       </c>
       <c r="K20">
-        <v>0.002389010971375449</v>
+        <v>0.00132893386630073</v>
       </c>
       <c r="L20">
-        <v>0.06289806289806289</v>
+        <v>0.03084528214616097</v>
       </c>
       <c r="M20">
-        <v>0.01133515506817788</v>
+        <v>0.006273991486280056</v>
       </c>
       <c r="N20">
-        <v>0.2916199446811691</v>
+        <v>0.2749308078187165</v>
       </c>
       <c r="O20">
-        <v>0.008355129052363131</v>
+        <v>0.004560823207877318</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1453,46 +1453,46 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7844966263014431</v>
+        <v>0.7885884281612945</v>
       </c>
       <c r="C23">
-        <v>0.004108461258601759</v>
+        <v>0.004105213577705658</v>
       </c>
       <c r="D23">
-        <v>0.4316958228832344</v>
+        <v>0.4234506666072863</v>
       </c>
       <c r="E23">
-        <v>0.009239019772534607</v>
+        <v>0.007311156403457197</v>
       </c>
       <c r="F23">
-        <v>0.9862836438923397</v>
+        <v>0.9907646048109965</v>
       </c>
       <c r="G23">
-        <v>0.0029452455539829</v>
+        <v>0.00263956523521458</v>
       </c>
       <c r="H23">
-        <v>0.2777239016745577</v>
+        <v>0.2701847693742451</v>
       </c>
       <c r="I23">
-        <v>0.008072265986740101</v>
+        <v>0.006277929579979136</v>
       </c>
       <c r="J23">
-        <v>0.987656924815806</v>
+        <v>0.9912990386748487</v>
       </c>
       <c r="K23">
-        <v>0.002521151177275693</v>
+        <v>0.002364470167051325</v>
       </c>
       <c r="L23">
-        <v>0.2039411948701908</v>
+        <v>0.1721257992953152</v>
       </c>
       <c r="M23">
-        <v>0.0309339371159022</v>
+        <v>0.02563038583469057</v>
       </c>
       <c r="N23">
-        <v>0.3854792217151093</v>
+        <v>0.362876588930037</v>
       </c>
       <c r="O23">
-        <v>0.0230967732703804</v>
+        <v>0.01909550824622652</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1547,46 +1547,46 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6516801756163458</v>
+        <v>0.6610664643046709</v>
       </c>
       <c r="C25">
-        <v>0.005239136925833332</v>
+        <v>0.00487098851957779</v>
       </c>
       <c r="D25">
-        <v>0.4097859587241889</v>
+        <v>0.4108765900355785</v>
       </c>
       <c r="E25">
-        <v>0.002518038492913044</v>
+        <v>0.002784877542174713</v>
       </c>
       <c r="F25">
-        <v>0.9994934143870313</v>
+        <v>0.9986979166666666</v>
       </c>
       <c r="G25">
-        <v>0.000707499596261485</v>
+        <v>0.001027159840200076</v>
       </c>
       <c r="H25">
-        <v>0.257812368113825</v>
+        <v>0.2587522455391817</v>
       </c>
       <c r="I25">
-        <v>0.002032416387744151</v>
+        <v>0.002236290496909488</v>
       </c>
       <c r="J25">
-        <v>0.9994908165120933</v>
+        <v>0.9983095288242346</v>
       </c>
       <c r="K25">
-        <v>0.000712978928510577</v>
+        <v>0.001339809210326282</v>
       </c>
       <c r="L25">
-        <v>0.1224946037619488</v>
+        <v>0.1230095541401274</v>
       </c>
       <c r="M25">
-        <v>0.009549696743848118</v>
+        <v>0.01088547858728028</v>
       </c>
       <c r="N25">
-        <v>0.327127659574468</v>
+        <v>0.3280487804878049</v>
       </c>
       <c r="O25">
-        <v>0.007231096913541957</v>
+        <v>0.008213269314813532</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1594,46 +1594,46 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7265079863603733</v>
+        <v>0.7323532372973992</v>
       </c>
       <c r="C26">
-        <v>0.00436393073798913</v>
+        <v>0.004372484350324224</v>
       </c>
       <c r="D26">
-        <v>0.4818269921232707</v>
+        <v>0.4872600038643054</v>
       </c>
       <c r="E26">
-        <v>0.005513541034597502</v>
+        <v>0.005560411702388524</v>
       </c>
       <c r="F26">
-        <v>0.9948214285714284</v>
+        <v>0.9939415538132572</v>
       </c>
       <c r="G26">
-        <v>0.00147879976207077</v>
+        <v>0.001648860393653528</v>
       </c>
       <c r="H26">
-        <v>0.3182761582733987</v>
+        <v>0.3230876435424149</v>
       </c>
       <c r="I26">
-        <v>0.004957314234336319</v>
+        <v>0.005076495437382811</v>
       </c>
       <c r="J26">
-        <v>0.9907513021050389</v>
+        <v>0.9878944525579098</v>
       </c>
       <c r="K26">
-        <v>0.00269258908476544</v>
+        <v>0.003162795847644562</v>
       </c>
       <c r="L26">
-        <v>0.1377602297200287</v>
+        <v>0.1358523855031978</v>
       </c>
       <c r="M26">
-        <v>0.02035915680632607</v>
+        <v>0.0207675011035322</v>
       </c>
       <c r="N26">
-        <v>0.3835125448028673</v>
+        <v>0.3864689045016913</v>
       </c>
       <c r="O26">
-        <v>0.01415635667550924</v>
+        <v>0.01426895726493077</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1641,46 +1641,46 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7684659712474797</v>
+        <v>0.7885210905349794</v>
       </c>
       <c r="C27">
-        <v>0.004852190909491072</v>
+        <v>0.004134391313464048</v>
       </c>
       <c r="D27">
-        <v>0.4030216604045617</v>
+        <v>0.4123357327651154</v>
       </c>
       <c r="E27">
-        <v>0.004009863897852739</v>
+        <v>0.005463597348389804</v>
       </c>
       <c r="F27">
-        <v>0.9969150450878027</v>
+        <v>0.9952083333333334</v>
       </c>
       <c r="G27">
-        <v>0.00158964695997077</v>
+        <v>0.001835478399401014</v>
       </c>
       <c r="H27">
-        <v>0.2528276458206097</v>
+        <v>0.260510026190643</v>
       </c>
       <c r="I27">
-        <v>0.003334420776784586</v>
+        <v>0.004625468137904543</v>
       </c>
       <c r="J27">
-        <v>0.9965665303833466</v>
+        <v>0.9943193329608725</v>
       </c>
       <c r="K27">
-        <v>0.001778319192878297</v>
+        <v>0.002142319701244344</v>
       </c>
       <c r="L27">
-        <v>0.09639600521059488</v>
+        <v>0.1195344650205761</v>
       </c>
       <c r="M27">
-        <v>0.0154063382417039</v>
+        <v>0.01974093046968604</v>
       </c>
       <c r="N27">
-        <v>0.306843389529725</v>
+        <v>0.3260613207547169</v>
       </c>
       <c r="O27">
-        <v>0.011478281007475</v>
+        <v>0.01472973729912613</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1688,46 +1688,46 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7674744897959184</v>
+        <v>0.7752508235998802</v>
       </c>
       <c r="C28">
-        <v>0.004922302893410668</v>
+        <v>0.003850020217618044</v>
       </c>
       <c r="D28">
-        <v>0.4437816457475213</v>
+        <v>0.4412266082781377</v>
       </c>
       <c r="E28">
-        <v>0.0139628286985351</v>
+        <v>0.009749080868161286</v>
       </c>
       <c r="F28">
-        <v>0.9846491228070177</v>
+        <v>0.9828296703296703</v>
       </c>
       <c r="G28">
-        <v>0.003943814723116112</v>
+        <v>0.003458529511263242</v>
       </c>
       <c r="H28">
-        <v>0.289110342885315</v>
+        <v>0.2861321762573449</v>
       </c>
       <c r="I28">
-        <v>0.01257986556145718</v>
+        <v>0.008848951594571608</v>
       </c>
       <c r="J28">
-        <v>0.9883744229126238</v>
+        <v>0.9847057645882825</v>
       </c>
       <c r="K28">
-        <v>0.002756503133156007</v>
+        <v>0.002588175653444269</v>
       </c>
       <c r="L28">
-        <v>0.2387218045112782</v>
+        <v>0.2378878982652568</v>
       </c>
       <c r="M28">
-        <v>0.04206193696982471</v>
+        <v>0.0308055522017984</v>
       </c>
       <c r="N28">
-        <v>0.410858877964141</v>
+        <v>0.4106280193236715</v>
       </c>
       <c r="O28">
-        <v>0.03150640679107114</v>
+        <v>0.02291779710548736</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1735,46 +1735,46 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7840063443072702</v>
+        <v>0.7727279979283793</v>
       </c>
       <c r="C29">
-        <v>0.00342896656637226</v>
+        <v>0.003008615366343226</v>
       </c>
       <c r="D29">
-        <v>0.4624615303520286</v>
+        <v>0.459949840109083</v>
       </c>
       <c r="E29">
-        <v>0.008924338880190119</v>
+        <v>0.007829824236502358</v>
       </c>
       <c r="F29">
-        <v>0.9673400673400673</v>
+        <v>0.9729370008873115</v>
       </c>
       <c r="G29">
-        <v>0.003551056125698282</v>
+        <v>0.003055640389331593</v>
       </c>
       <c r="H29">
-        <v>0.3053713848040028</v>
+        <v>0.3022877628333227</v>
       </c>
       <c r="I29">
-        <v>0.007707184703407644</v>
+        <v>0.006767417954585575</v>
       </c>
       <c r="J29">
-        <v>0.9793074663717202</v>
+        <v>0.9805463180463437</v>
       </c>
       <c r="K29">
-        <v>0.001996623833827815</v>
+        <v>0.001818953545476454</v>
       </c>
       <c r="L29">
-        <v>0.3700897867564534</v>
+        <v>0.342535354390719</v>
       </c>
       <c r="M29">
-        <v>0.02918942465325775</v>
+        <v>0.02586303370855841</v>
       </c>
       <c r="N29">
-        <v>0.4999268042746304</v>
+        <v>0.4828505595786702</v>
       </c>
       <c r="O29">
-        <v>0.02217302849137159</v>
+        <v>0.01953458073139877</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1782,34 +1782,46 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7268625764232385</v>
+        <v>0.7230931740735661</v>
       </c>
       <c r="C30">
-        <v>0.004875084518804473</v>
+        <v>0.005238155624738061</v>
       </c>
       <c r="D30">
-        <v>0.3325925551131711</v>
+        <v>0.3487075586527635</v>
       </c>
       <c r="E30">
-        <v>0.001169211855711061</v>
+        <v>0.001780273756069706</v>
+      </c>
+      <c r="F30">
+        <v>0.9994972347913527</v>
+      </c>
+      <c r="G30">
+        <v>0.0007068835479138724</v>
       </c>
       <c r="H30">
-        <v>0.1994748633934044</v>
+        <v>0.2112171474327377</v>
       </c>
       <c r="I30">
-        <v>0.0008478321840527381</v>
+        <v>0.001351349731393253</v>
+      </c>
+      <c r="J30">
+        <v>0.9990290802311264</v>
+      </c>
+      <c r="K30">
+        <v>0.001375629564260461</v>
       </c>
       <c r="L30">
-        <v>0.01507265968232511</v>
+        <v>0.01907968574635241</v>
       </c>
       <c r="M30">
-        <v>0.004996567271031652</v>
+        <v>0.007985428764869459</v>
       </c>
       <c r="N30">
-        <v>0.2091180461329715</v>
+        <v>0.2230065359477124</v>
       </c>
       <c r="O30">
-        <v>0.004012168943007516</v>
+        <v>0.006202850760292561</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1817,46 +1829,46 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6571769067796609</v>
+        <v>0.6668141883031733</v>
       </c>
       <c r="C31">
-        <v>0.003866862200426535</v>
+        <v>0.004046266899572326</v>
       </c>
       <c r="D31">
-        <v>0.3726693776384898</v>
+        <v>0.382875784346305</v>
       </c>
       <c r="E31">
-        <v>0.003866193018275954</v>
+        <v>0.003652731743871485</v>
       </c>
       <c r="F31">
-        <v>0.9954166666666666</v>
+        <v>0.9931573802541543</v>
       </c>
       <c r="G31">
-        <v>0.001569213301538031</v>
+        <v>0.001675462113576165</v>
       </c>
       <c r="H31">
-        <v>0.2293812948286114</v>
+        <v>0.2373159431784686</v>
       </c>
       <c r="I31">
-        <v>0.003016984696978364</v>
+        <v>0.002906757532530668</v>
       </c>
       <c r="J31">
-        <v>0.99218236612516</v>
+        <v>0.987047655735015</v>
       </c>
       <c r="K31">
-        <v>0.002767187344906441</v>
+        <v>0.002923489627847831</v>
       </c>
       <c r="L31">
-        <v>0.08988700564971751</v>
+        <v>0.09126544187519799</v>
       </c>
       <c r="M31">
-        <v>0.0162994642728951</v>
+        <v>0.01556400434506808</v>
       </c>
       <c r="N31">
-        <v>0.2830666666666667</v>
+        <v>0.2904957275503594</v>
       </c>
       <c r="O31">
-        <v>0.01252994600906382</v>
+        <v>0.01179029663409059</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1864,46 +1876,46 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6926800837377487</v>
+        <v>0.6918036967068444</v>
       </c>
       <c r="C32">
-        <v>0.002977905723138941</v>
+        <v>0.003364613190385612</v>
       </c>
       <c r="D32">
-        <v>0.4048925376436113</v>
+        <v>0.4143766573188107</v>
       </c>
       <c r="E32">
-        <v>0.003746604408713883</v>
+        <v>0.003861710330529122</v>
       </c>
       <c r="F32">
-        <v>0.9933307682441962</v>
+        <v>0.9920329670329671</v>
       </c>
       <c r="G32">
-        <v>0.001763860525014427</v>
+        <v>0.001382078884286098</v>
       </c>
       <c r="H32">
-        <v>0.2544282119197132</v>
+        <v>0.2620884813861706</v>
       </c>
       <c r="I32">
-        <v>0.003125935570144567</v>
+        <v>0.003234653655974196</v>
       </c>
       <c r="J32">
-        <v>0.9841306723402536</v>
+        <v>0.9798905508042556</v>
       </c>
       <c r="K32">
-        <v>0.003296019807725092</v>
+        <v>0.002474063581580532</v>
       </c>
       <c r="L32">
-        <v>0.1127863487611033</v>
+        <v>0.1170298627925746</v>
       </c>
       <c r="M32">
-        <v>0.01400845846395741</v>
+        <v>0.01433794178546836</v>
       </c>
       <c r="N32">
-        <v>0.3179441207231435</v>
+        <v>0.32651495220556</v>
       </c>
       <c r="O32">
-        <v>0.01044294277627261</v>
+        <v>0.01063900425527681</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2052,46 +2064,46 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6894021361767388</v>
+        <v>0.6895414556800162</v>
       </c>
       <c r="C36">
-        <v>0.002979612055610259</v>
+        <v>0.002883159141952807</v>
       </c>
       <c r="D36">
-        <v>0.3848684393356838</v>
+        <v>0.3986777983172321</v>
       </c>
       <c r="E36">
-        <v>0.001908386402072249</v>
+        <v>0.002023036039465964</v>
       </c>
       <c r="F36">
-        <v>0.9996567505720824</v>
+        <v>0.9982423591446149</v>
       </c>
       <c r="G36">
-        <v>0.0005069399240997807</v>
+        <v>0.0008257129046801426</v>
       </c>
       <c r="H36">
-        <v>0.2383466043807971</v>
+        <v>0.2491252619787099</v>
       </c>
       <c r="I36">
-        <v>0.001501371133114132</v>
+        <v>0.001626064587597398</v>
       </c>
       <c r="J36">
-        <v>0.9994047978729831</v>
+        <v>0.9941212593195852</v>
       </c>
       <c r="K36">
-        <v>0.0008754556691704662</v>
+        <v>0.00262635201567607</v>
       </c>
       <c r="L36">
-        <v>0.02975281210942925</v>
+        <v>0.04613481756338899</v>
       </c>
       <c r="M36">
-        <v>0.007865289451361081</v>
+        <v>0.008596210141390968</v>
       </c>
       <c r="N36">
-        <v>0.2555401662049861</v>
+        <v>0.2751227073107725</v>
       </c>
       <c r="O36">
-        <v>0.00595926128253782</v>
+        <v>0.006387245778408268</v>
       </c>
     </row>
   </sheetData>
